--- a/CardGame/Luban/Datas/__beans__.xlsx
+++ b/CardGame/Luban/Datas/__beans__.xlsx
@@ -4,25 +4,12 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="16575" windowHeight="8490"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -98,14 +85,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -131,23 +118,45 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -192,14 +201,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -207,7 +209,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -215,6 +217,13 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -223,21 +232,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -246,20 +240,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -286,13 +266,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -310,12 +326,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -334,18 +368,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -358,36 +380,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -406,24 +404,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -437,12 +423,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -465,6 +445,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -497,21 +492,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -570,148 +550,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -719,64 +699,64 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="23" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="22" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="7" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="31" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1050,7 +1030,7 @@
   <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:N16"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2"/>

--- a/CardGame/Luban/Datas/__beans__.xlsx
+++ b/CardGame/Luban/Datas/__beans__.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16575" windowHeight="8490"/>
+    <workbookView windowWidth="28125" windowHeight="14340"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="28">
   <si>
     <t>##var</t>
   </si>
@@ -80,6 +80,24 @@
   </si>
   <si>
     <t>字段变体</t>
+  </si>
+  <si>
+    <t>SkillCastCondition</t>
+  </si>
+  <si>
+    <t>Cast</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>释放回合</t>
+  </si>
+  <si>
+    <t>CD</t>
+  </si>
+  <si>
+    <t>冷却回合</t>
   </si>
 </sst>
 </file>
@@ -1027,13 +1045,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P3"/>
+  <dimension ref="A1:P5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4"/>
   <cols>
     <col min="2" max="4" width="20.625" customWidth="1"/>
     <col min="5" max="6" width="12.25" customWidth="1"/>
@@ -1135,6 +1153,35 @@
         <v>21</v>
       </c>
     </row>
+    <row r="4" spans="2:14">
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E4"/>
+      <c r="J4" t="s">
+        <v>23</v>
+      </c>
+      <c r="L4" t="s">
+        <v>24</v>
+      </c>
+      <c r="N4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="10:14">
+      <c r="J5" t="s">
+        <v>26</v>
+      </c>
+      <c r="L5" t="s">
+        <v>24</v>
+      </c>
+      <c r="N5" t="s">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="J1:P1"/>

--- a/CardGame/Luban/Datas/__beans__.xlsx
+++ b/CardGame/Luban/Datas/__beans__.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="62">
   <si>
     <t>##var</t>
   </si>
@@ -82,7 +82,10 @@
     <t>字段变体</t>
   </si>
   <si>
-    <t>SkillCastCondition</t>
+    <t>CastRule</t>
+  </si>
+  <si>
+    <t>,</t>
   </si>
   <si>
     <t>Cast</t>
@@ -98,6 +101,105 @@
   </si>
   <si>
     <t>冷却回合</t>
+  </si>
+  <si>
+    <t>CastCondition</t>
+  </si>
+  <si>
+    <t>HP</t>
+  </si>
+  <si>
+    <t>生命值</t>
+  </si>
+  <si>
+    <t>Shield</t>
+  </si>
+  <si>
+    <t>护盾值</t>
+  </si>
+  <si>
+    <t>CallbackWarp</t>
+  </si>
+  <si>
+    <t>FuncKey</t>
+  </si>
+  <si>
+    <t>方法名</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>Params</t>
+  </si>
+  <si>
+    <t>参数</t>
+  </si>
+  <si>
+    <t>PropertyMod</t>
+  </si>
+  <si>
+    <t>Attack</t>
+  </si>
+  <si>
+    <t>攻击力</t>
+  </si>
+  <si>
+    <t>PhysicalDefense</t>
+  </si>
+  <si>
+    <t>物理防御力</t>
+  </si>
+  <si>
+    <t>MagicDefense</t>
+  </si>
+  <si>
+    <t>魔法防御力</t>
+  </si>
+  <si>
+    <t>ControlMod</t>
+  </si>
+  <si>
+    <t>CanAttack</t>
+  </si>
+  <si>
+    <t>攻击状态</t>
+  </si>
+  <si>
+    <t>bool</t>
+  </si>
+  <si>
+    <t>是否可以进行普攻</t>
+  </si>
+  <si>
+    <t>CanSkill</t>
+  </si>
+  <si>
+    <t>技能状态</t>
+  </si>
+  <si>
+    <t>是否可以释放技能</t>
+  </si>
+  <si>
+    <t>CanDead</t>
+  </si>
+  <si>
+    <t>死亡状态</t>
+  </si>
+  <si>
+    <t>是否可以死亡</t>
+  </si>
+  <si>
+    <t>CanBeHurt</t>
+  </si>
+  <si>
+    <t>受伤状态</t>
+  </si>
+  <si>
+    <t>是否可以受到伤害</t>
+  </si>
+  <si>
+    <t>CastResource</t>
   </si>
 </sst>
 </file>
@@ -1045,19 +1147,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P5"/>
+  <dimension ref="A1:P32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="2" max="4" width="20.625" customWidth="1"/>
     <col min="5" max="6" width="12.25" customWidth="1"/>
     <col min="7" max="9" width="15" customWidth="1"/>
     <col min="10" max="12" width="13.5" customWidth="1"/>
     <col min="13" max="13" width="10.375" customWidth="1"/>
+    <col min="14" max="14" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -1160,26 +1263,248 @@
       <c r="D4" t="b">
         <v>1</v>
       </c>
-      <c r="E4"/>
+      <c r="E4" t="s">
+        <v>23</v>
+      </c>
       <c r="J4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="10:14">
       <c r="J5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N5" t="s">
-        <v>27</v>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14">
+      <c r="B7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" t="b">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
+        <v>23</v>
+      </c>
+      <c r="J7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K7" t="s">
+        <v>31</v>
+      </c>
+      <c r="L7" t="s">
+        <v>25</v>
+      </c>
+      <c r="N7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="10:14">
+      <c r="J8" t="s">
+        <v>32</v>
+      </c>
+      <c r="K8" t="s">
+        <v>33</v>
+      </c>
+      <c r="L8" t="s">
+        <v>25</v>
+      </c>
+      <c r="N8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12">
+      <c r="B16" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" t="b">
+        <v>1</v>
+      </c>
+      <c r="J16" t="s">
+        <v>35</v>
+      </c>
+      <c r="K16" t="s">
+        <v>36</v>
+      </c>
+      <c r="L16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="10:11">
+      <c r="J17" t="s">
+        <v>38</v>
+      </c>
+      <c r="K17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14">
+      <c r="B21" t="s">
+        <v>40</v>
+      </c>
+      <c r="D21" t="b">
+        <v>1</v>
+      </c>
+      <c r="J21" t="s">
+        <v>30</v>
+      </c>
+      <c r="K21" t="s">
+        <v>31</v>
+      </c>
+      <c r="L21" t="s">
+        <v>25</v>
+      </c>
+      <c r="N21" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="10:14">
+      <c r="J22" t="s">
+        <v>41</v>
+      </c>
+      <c r="K22" t="s">
+        <v>42</v>
+      </c>
+      <c r="L22" t="s">
+        <v>25</v>
+      </c>
+      <c r="N22" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="10:14">
+      <c r="J23" t="s">
+        <v>43</v>
+      </c>
+      <c r="K23" t="s">
+        <v>44</v>
+      </c>
+      <c r="L23" t="s">
+        <v>25</v>
+      </c>
+      <c r="N23" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="10:14">
+      <c r="J24" t="s">
+        <v>45</v>
+      </c>
+      <c r="K24" t="s">
+        <v>46</v>
+      </c>
+      <c r="L24" t="s">
+        <v>25</v>
+      </c>
+      <c r="N24" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14">
+      <c r="B26" t="s">
+        <v>47</v>
+      </c>
+      <c r="D26" t="b">
+        <v>1</v>
+      </c>
+      <c r="J26" t="s">
+        <v>48</v>
+      </c>
+      <c r="K26" t="s">
+        <v>49</v>
+      </c>
+      <c r="L26" t="s">
+        <v>50</v>
+      </c>
+      <c r="N26" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="10:14">
+      <c r="J27" t="s">
+        <v>52</v>
+      </c>
+      <c r="K27" t="s">
+        <v>53</v>
+      </c>
+      <c r="L27" t="s">
+        <v>50</v>
+      </c>
+      <c r="N27" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="10:14">
+      <c r="J28" t="s">
+        <v>55</v>
+      </c>
+      <c r="K28" t="s">
+        <v>56</v>
+      </c>
+      <c r="L28" t="s">
+        <v>50</v>
+      </c>
+      <c r="N28" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="29" spans="10:14">
+      <c r="J29" t="s">
+        <v>58</v>
+      </c>
+      <c r="K29" t="s">
+        <v>59</v>
+      </c>
+      <c r="L29" t="s">
+        <v>50</v>
+      </c>
+      <c r="N29" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14">
+      <c r="B31" t="s">
+        <v>61</v>
+      </c>
+      <c r="D31" t="b">
+        <v>1</v>
+      </c>
+      <c r="J31" t="s">
+        <v>30</v>
+      </c>
+      <c r="K31" t="s">
+        <v>31</v>
+      </c>
+      <c r="L31" t="s">
+        <v>25</v>
+      </c>
+      <c r="N31" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="10:14">
+      <c r="J32" t="s">
+        <v>32</v>
+      </c>
+      <c r="K32" t="s">
+        <v>33</v>
+      </c>
+      <c r="L32" t="s">
+        <v>25</v>
+      </c>
+      <c r="N32" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/CardGame/Luban/Datas/__beans__.xlsx
+++ b/CardGame/Luban/Datas/__beans__.xlsx
@@ -4,17 +4,30 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="14340"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="70">
   <si>
     <t>##var</t>
   </si>
@@ -85,42 +98,42 @@
     <t>CastRule</t>
   </si>
   <si>
+    <t>Cast</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>释放回合</t>
+  </si>
+  <si>
+    <t>CD</t>
+  </si>
+  <si>
+    <t>冷却回合</t>
+  </si>
+  <si>
+    <t>CastCondition</t>
+  </si>
+  <si>
+    <t>HP</t>
+  </si>
+  <si>
+    <t>生命值</t>
+  </si>
+  <si>
+    <t>Shield</t>
+  </si>
+  <si>
+    <t>护盾值</t>
+  </si>
+  <si>
+    <t>CallbackWarp</t>
+  </si>
+  <si>
     <t>,</t>
   </si>
   <si>
-    <t>Cast</t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>释放回合</t>
-  </si>
-  <si>
-    <t>CD</t>
-  </si>
-  <si>
-    <t>冷却回合</t>
-  </si>
-  <si>
-    <t>CastCondition</t>
-  </si>
-  <si>
-    <t>HP</t>
-  </si>
-  <si>
-    <t>生命值</t>
-  </si>
-  <si>
-    <t>Shield</t>
-  </si>
-  <si>
-    <t>护盾值</t>
-  </si>
-  <si>
-    <t>CallbackWarp</t>
-  </si>
-  <si>
     <t>FuncKey</t>
   </si>
   <si>
@@ -136,6 +149,9 @@
     <t>参数</t>
   </si>
   <si>
+    <t>(array#sep=|),string</t>
+  </si>
+  <si>
     <t>PropertyMod</t>
   </si>
   <si>
@@ -200,12 +216,33 @@
   </si>
   <si>
     <t>CastResource</t>
+  </si>
+  <si>
+    <t>TimelineNodeWarp</t>
+  </si>
+  <si>
+    <t>Elapsed</t>
+  </si>
+  <si>
+    <t>帧数</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>表示第几秒触发</t>
+  </si>
+  <si>
+    <t>Event</t>
+  </si>
+  <si>
+    <t>事件</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -235,48 +272,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -321,6 +329,21 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -360,6 +383,20 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -386,18 +423,96 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -410,19 +525,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -434,115 +549,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -565,21 +602,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -612,6 +634,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -670,148 +707,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -819,10 +856,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="7" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="31" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="23" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="22" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -831,52 +868,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1147,10 +1184,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P32"/>
+  <dimension ref="A1:P36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1158,7 +1195,8 @@
     <col min="2" max="4" width="20.625" customWidth="1"/>
     <col min="5" max="6" width="12.25" customWidth="1"/>
     <col min="7" max="9" width="15" customWidth="1"/>
-    <col min="10" max="12" width="13.5" customWidth="1"/>
+    <col min="10" max="11" width="13.5" customWidth="1"/>
+    <col min="12" max="12" width="17" customWidth="1"/>
     <col min="13" max="13" width="10.375" customWidth="1"/>
     <col min="14" max="14" width="15.5" customWidth="1"/>
   </cols>
@@ -1263,74 +1301,73 @@
       <c r="D4" t="b">
         <v>1</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4"/>
+      <c r="J4" t="s">
         <v>23</v>
       </c>
-      <c r="J4" t="s">
+      <c r="L4" t="s">
         <v>24</v>
       </c>
-      <c r="L4" t="s">
+      <c r="N4" t="s">
         <v>25</v>
-      </c>
-      <c r="N4" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="5" spans="10:14">
       <c r="J5" t="s">
+        <v>26</v>
+      </c>
+      <c r="L5" t="s">
+        <v>24</v>
+      </c>
+      <c r="N5" t="s">
         <v>27</v>
-      </c>
-      <c r="L5" t="s">
-        <v>25</v>
-      </c>
-      <c r="N5" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="7" spans="2:14">
       <c r="B7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D7" t="b">
         <v>1</v>
       </c>
-      <c r="E7" t="s">
-        <v>23</v>
-      </c>
+      <c r="E7"/>
       <c r="J7" t="s">
+        <v>29</v>
+      </c>
+      <c r="K7" t="s">
         <v>30</v>
       </c>
-      <c r="K7" t="s">
-        <v>31</v>
-      </c>
       <c r="L7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="10:14">
       <c r="J8" t="s">
+        <v>31</v>
+      </c>
+      <c r="K8" t="s">
         <v>32</v>
       </c>
-      <c r="K8" t="s">
-        <v>33</v>
-      </c>
       <c r="L8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="2:12">
       <c r="B16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D16" t="b">
         <v>1</v>
       </c>
+      <c r="E16" t="s">
+        <v>34</v>
+      </c>
       <c r="J16" t="s">
         <v>35</v>
       </c>
@@ -1341,170 +1378,210 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="10:11">
+    <row r="17" spans="10:12">
       <c r="J17" t="s">
         <v>38</v>
       </c>
       <c r="K17" t="s">
         <v>39</v>
       </c>
+      <c r="L17" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="21" spans="2:14">
       <c r="B21" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D21" t="b">
         <v>1</v>
       </c>
       <c r="J21" t="s">
+        <v>29</v>
+      </c>
+      <c r="K21" t="s">
         <v>30</v>
       </c>
-      <c r="K21" t="s">
-        <v>31</v>
-      </c>
       <c r="L21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="10:14">
       <c r="J22" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K22" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N22" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23" spans="10:14">
       <c r="J23" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24" spans="10:14">
       <c r="J24" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="26" spans="2:14">
       <c r="B26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D26" t="b">
         <v>1</v>
       </c>
       <c r="J26" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K26" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L26" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N26" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="27" spans="10:14">
       <c r="J27" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K27" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L27" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N27" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="28" spans="10:14">
       <c r="J28" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K28" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L28" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N28" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="29" spans="10:14">
       <c r="J29" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K29" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L29" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N29" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="31" spans="2:14">
       <c r="B31" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D31" t="b">
         <v>1</v>
       </c>
       <c r="J31" t="s">
+        <v>29</v>
+      </c>
+      <c r="K31" t="s">
         <v>30</v>
       </c>
-      <c r="K31" t="s">
-        <v>31</v>
-      </c>
       <c r="L31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N31" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32" spans="10:14">
       <c r="J32" t="s">
+        <v>31</v>
+      </c>
+      <c r="K32" t="s">
         <v>32</v>
       </c>
-      <c r="K32" t="s">
+      <c r="L32" t="s">
+        <v>24</v>
+      </c>
+      <c r="N32" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14">
+      <c r="B35" t="s">
+        <v>63</v>
+      </c>
+      <c r="D35" t="b">
+        <v>1</v>
+      </c>
+      <c r="E35" t="s">
+        <v>34</v>
+      </c>
+      <c r="J35" t="s">
+        <v>64</v>
+      </c>
+      <c r="K35" t="s">
+        <v>65</v>
+      </c>
+      <c r="L35" t="s">
+        <v>66</v>
+      </c>
+      <c r="N35" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="36" spans="10:14">
+      <c r="J36" t="s">
+        <v>68</v>
+      </c>
+      <c r="K36" t="s">
+        <v>69</v>
+      </c>
+      <c r="L36" t="s">
         <v>33</v>
       </c>
-      <c r="L32" t="s">
-        <v>25</v>
-      </c>
-      <c r="N32" t="s">
-        <v>33</v>
+      <c r="N36" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/CardGame/Luban/Datas/__beans__.xlsx
+++ b/CardGame/Luban/Datas/__beans__.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="105">
   <si>
     <t>##var</t>
   </si>
@@ -128,13 +128,10 @@
     <t>护盾值</t>
   </si>
   <si>
-    <t>CallbackWarp</t>
-  </si>
-  <si>
-    <t>,</t>
-  </si>
-  <si>
-    <t>FuncKey</t>
+    <t>EventWarp</t>
+  </si>
+  <si>
+    <t>Event</t>
   </si>
   <si>
     <t>方法名</t>
@@ -149,7 +146,7 @@
     <t>参数</t>
   </si>
   <si>
-    <t>(array#sep=|),string</t>
+    <t>(list#sep=|),mObject#sep=-</t>
   </si>
   <si>
     <t>PropertyMod</t>
@@ -215,7 +212,7 @@
     <t>是否可以受到伤害</t>
   </si>
   <si>
-    <t>CastResource</t>
+    <t>CostResource</t>
   </si>
   <si>
     <t>TimelineNodeWarp</t>
@@ -224,19 +221,127 @@
     <t>Elapsed</t>
   </si>
   <si>
-    <t>帧数</t>
+    <t>第几秒</t>
   </si>
   <si>
     <t>float</t>
   </si>
   <si>
-    <t>表示第几秒触发</t>
-  </si>
-  <si>
-    <t>Event</t>
-  </si>
-  <si>
     <t>事件</t>
+  </si>
+  <si>
+    <t>PlayEffectWarp</t>
+  </si>
+  <si>
+    <t>BindPoint</t>
+  </si>
+  <si>
+    <t>绑点</t>
+  </si>
+  <si>
+    <t>EffectName</t>
+  </si>
+  <si>
+    <t>特效名称</t>
+  </si>
+  <si>
+    <t>Duration</t>
+  </si>
+  <si>
+    <t>持续时间</t>
+  </si>
+  <si>
+    <t>IsLoop</t>
+  </si>
+  <si>
+    <t>循环</t>
+  </si>
+  <si>
+    <t>CreateDamageWarp</t>
+  </si>
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t>DamageType</t>
+  </si>
+  <si>
+    <t>EDamageType</t>
+  </si>
+  <si>
+    <t>伤害类型</t>
+  </si>
+  <si>
+    <t>TargetFliter</t>
+  </si>
+  <si>
+    <t>目标过滤器</t>
+  </si>
+  <si>
+    <t>ETargetFliter</t>
+  </si>
+  <si>
+    <t>目标过滤类型</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>数量</t>
+  </si>
+  <si>
+    <t>目标数量</t>
+  </si>
+  <si>
+    <t>Ratio</t>
+  </si>
+  <si>
+    <t>伤害比例</t>
+  </si>
+  <si>
+    <t>AddBuffWarp</t>
+  </si>
+  <si>
+    <t>Probability</t>
+  </si>
+  <si>
+    <t>概率</t>
+  </si>
+  <si>
+    <t>BuffKey</t>
+  </si>
+  <si>
+    <t>Buff表的Key</t>
+  </si>
+  <si>
+    <t>AddStack</t>
+  </si>
+  <si>
+    <t>层数</t>
+  </si>
+  <si>
+    <t>添加的Buff层数</t>
+  </si>
+  <si>
+    <t>TimeChange</t>
+  </si>
+  <si>
+    <t>Buff的持续时间修改，true是直接设置，flase是改变</t>
+  </si>
+  <si>
+    <t>Permanent</t>
+  </si>
+  <si>
+    <t>永久</t>
+  </si>
+  <si>
+    <t>是否永久Buff</t>
+  </si>
+  <si>
+    <t>时间</t>
+  </si>
+  <si>
+    <t>(map#sep=;|),string,(array#sep=,),mObject</t>
   </si>
 </sst>
 </file>
@@ -1184,10 +1289,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P36"/>
+  <dimension ref="A1:P45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1196,7 +1301,7 @@
     <col min="5" max="6" width="12.25" customWidth="1"/>
     <col min="7" max="9" width="15" customWidth="1"/>
     <col min="10" max="11" width="13.5" customWidth="1"/>
-    <col min="12" max="12" width="17" customWidth="1"/>
+    <col min="12" max="12" width="35.2916666666667" customWidth="1"/>
     <col min="13" max="13" width="10.375" customWidth="1"/>
     <col min="14" max="14" width="15.5" customWidth="1"/>
   </cols>
@@ -1358,230 +1463,453 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="2:12">
-      <c r="B16" t="s">
+    <row r="10" spans="2:14">
+      <c r="B10" t="s">
         <v>33</v>
       </c>
-      <c r="D16" t="b">
+      <c r="D10" t="b">
         <v>1</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E10"/>
+      <c r="J10" t="s">
         <v>34</v>
       </c>
+      <c r="K10" t="s">
+        <v>35</v>
+      </c>
+      <c r="L10" t="s">
+        <v>36</v>
+      </c>
+      <c r="N10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="10:14">
+      <c r="J11" t="s">
+        <v>37</v>
+      </c>
+      <c r="K11" t="s">
+        <v>38</v>
+      </c>
+      <c r="L11" t="s">
+        <v>39</v>
+      </c>
+      <c r="N11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14">
+      <c r="B13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" t="b">
+        <v>1</v>
+      </c>
+      <c r="J13" t="s">
+        <v>29</v>
+      </c>
+      <c r="K13" t="s">
+        <v>30</v>
+      </c>
+      <c r="L13" t="s">
+        <v>24</v>
+      </c>
+      <c r="N13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="10:14">
+      <c r="J14" t="s">
+        <v>41</v>
+      </c>
+      <c r="K14" t="s">
+        <v>42</v>
+      </c>
+      <c r="L14" t="s">
+        <v>24</v>
+      </c>
+      <c r="N14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="10:14">
+      <c r="J15" t="s">
+        <v>43</v>
+      </c>
+      <c r="K15" t="s">
+        <v>44</v>
+      </c>
+      <c r="L15" t="s">
+        <v>24</v>
+      </c>
+      <c r="N15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="10:14">
       <c r="J16" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="K16" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="L16" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="17" spans="10:12">
-      <c r="J17" t="s">
-        <v>38</v>
-      </c>
-      <c r="K17" t="s">
-        <v>39</v>
-      </c>
-      <c r="L17" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" spans="2:14">
-      <c r="B21" t="s">
-        <v>41</v>
-      </c>
-      <c r="D21" t="b">
+        <v>24</v>
+      </c>
+      <c r="N16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14">
+      <c r="B18" t="s">
+        <v>47</v>
+      </c>
+      <c r="D18" t="b">
         <v>1</v>
       </c>
+      <c r="J18" t="s">
+        <v>48</v>
+      </c>
+      <c r="K18" t="s">
+        <v>49</v>
+      </c>
+      <c r="L18" t="s">
+        <v>50</v>
+      </c>
+      <c r="N18" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="10:14">
+      <c r="J19" t="s">
+        <v>52</v>
+      </c>
+      <c r="K19" t="s">
+        <v>53</v>
+      </c>
+      <c r="L19" t="s">
+        <v>50</v>
+      </c>
+      <c r="N19" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="10:14">
+      <c r="J20" t="s">
+        <v>55</v>
+      </c>
+      <c r="K20" t="s">
+        <v>56</v>
+      </c>
+      <c r="L20" t="s">
+        <v>50</v>
+      </c>
+      <c r="N20" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="21" spans="10:14">
       <c r="J21" t="s">
+        <v>58</v>
+      </c>
+      <c r="K21" t="s">
+        <v>59</v>
+      </c>
+      <c r="L21" t="s">
+        <v>50</v>
+      </c>
+      <c r="N21" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14">
+      <c r="B23" t="s">
+        <v>61</v>
+      </c>
+      <c r="D23" t="b">
+        <v>1</v>
+      </c>
+      <c r="J23" t="s">
         <v>29</v>
       </c>
-      <c r="K21" t="s">
+      <c r="K23" t="s">
         <v>30</v>
-      </c>
-      <c r="L21" t="s">
-        <v>24</v>
-      </c>
-      <c r="N21" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="10:14">
-      <c r="J22" t="s">
-        <v>42</v>
-      </c>
-      <c r="K22" t="s">
-        <v>43</v>
-      </c>
-      <c r="L22" t="s">
-        <v>24</v>
-      </c>
-      <c r="N22" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="23" spans="10:14">
-      <c r="J23" t="s">
-        <v>44</v>
-      </c>
-      <c r="K23" t="s">
-        <v>45</v>
       </c>
       <c r="L23" t="s">
         <v>24</v>
       </c>
       <c r="N23" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" spans="10:14">
       <c r="J24" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="K24" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="L24" t="s">
         <v>24</v>
       </c>
       <c r="N24" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="26" spans="2:14">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12">
       <c r="B26" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="D26" t="b">
         <v>1</v>
       </c>
+      <c r="E26"/>
       <c r="J26" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="K26" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="L26" t="s">
-        <v>51</v>
-      </c>
-      <c r="N26" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="27" spans="10:14">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="27" spans="10:12">
       <c r="J27" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="K27" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="L27" t="s">
-        <v>51</v>
-      </c>
-      <c r="N27" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="28" spans="10:14">
-      <c r="J28" t="s">
-        <v>56</v>
-      </c>
-      <c r="K28" t="s">
-        <v>57</v>
-      </c>
-      <c r="L28" t="s">
-        <v>51</v>
-      </c>
-      <c r="N28" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="29" spans="10:14">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14">
+      <c r="B29" t="s">
+        <v>67</v>
+      </c>
+      <c r="D29" t="b">
+        <v>1</v>
+      </c>
       <c r="J29" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="K29" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="L29" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="N29" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="31" spans="2:14">
-      <c r="B31" t="s">
-        <v>62</v>
-      </c>
-      <c r="D31" t="b">
-        <v>1</v>
-      </c>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="30" spans="10:14">
+      <c r="J30" t="s">
+        <v>70</v>
+      </c>
+      <c r="K30" t="s">
+        <v>71</v>
+      </c>
+      <c r="L30" t="s">
+        <v>36</v>
+      </c>
+      <c r="N30" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="31" spans="10:14">
       <c r="J31" t="s">
-        <v>29</v>
+        <v>72</v>
       </c>
       <c r="K31" t="s">
-        <v>30</v>
+        <v>73</v>
       </c>
       <c r="L31" t="s">
-        <v>24</v>
+        <v>65</v>
       </c>
       <c r="N31" t="s">
-        <v>30</v>
+        <v>73</v>
       </c>
     </row>
     <row r="32" spans="10:14">
       <c r="J32" t="s">
-        <v>31</v>
+        <v>74</v>
       </c>
       <c r="K32" t="s">
-        <v>32</v>
+        <v>75</v>
       </c>
       <c r="L32" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="N32" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="35" spans="2:14">
-      <c r="B35" t="s">
-        <v>63</v>
-      </c>
-      <c r="D35" t="b">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14">
+      <c r="B34" t="s">
+        <v>76</v>
+      </c>
+      <c r="D34" t="b">
         <v>1</v>
       </c>
-      <c r="E35" t="s">
-        <v>34</v>
-      </c>
+      <c r="E34" t="s">
+        <v>77</v>
+      </c>
+      <c r="J34" t="s">
+        <v>78</v>
+      </c>
+      <c r="K34" t="s">
+        <v>18</v>
+      </c>
+      <c r="L34" t="s">
+        <v>79</v>
+      </c>
+      <c r="N34" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="35" spans="10:14">
       <c r="J35" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="K35" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="L35" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="N35" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
     </row>
     <row r="36" spans="10:14">
       <c r="J36" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="K36" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="L36" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="N36" t="s">
-        <v>69</v>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="37" spans="10:14">
+      <c r="J37" t="s">
+        <v>88</v>
+      </c>
+      <c r="K37" t="s">
+        <v>89</v>
+      </c>
+      <c r="L37" t="s">
+        <v>65</v>
+      </c>
+      <c r="N37" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14">
+      <c r="B39" t="s">
+        <v>90</v>
+      </c>
+      <c r="D39" t="b">
+        <v>1</v>
+      </c>
+      <c r="J39" t="s">
+        <v>91</v>
+      </c>
+      <c r="K39" t="s">
+        <v>92</v>
+      </c>
+      <c r="L39" t="s">
+        <v>65</v>
+      </c>
+      <c r="N39" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="40" spans="10:14">
+      <c r="J40" t="s">
+        <v>93</v>
+      </c>
+      <c r="K40"/>
+      <c r="L40" t="s">
+        <v>36</v>
+      </c>
+      <c r="N40" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="41" spans="10:14">
+      <c r="J41" t="s">
+        <v>95</v>
+      </c>
+      <c r="K41" t="s">
+        <v>96</v>
+      </c>
+      <c r="L41" t="s">
+        <v>24</v>
+      </c>
+      <c r="N41" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="42" spans="10:14">
+      <c r="J42" t="s">
+        <v>98</v>
+      </c>
+      <c r="K42"/>
+      <c r="L42" t="s">
+        <v>50</v>
+      </c>
+      <c r="N42" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="43" spans="10:14">
+      <c r="J43" t="s">
+        <v>100</v>
+      </c>
+      <c r="K43" t="s">
+        <v>101</v>
+      </c>
+      <c r="L43" t="s">
+        <v>50</v>
+      </c>
+      <c r="N43" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="44" spans="10:14">
+      <c r="J44" t="s">
+        <v>72</v>
+      </c>
+      <c r="K44" t="s">
+        <v>103</v>
+      </c>
+      <c r="L44" t="s">
+        <v>65</v>
+      </c>
+      <c r="N44" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="45" spans="10:14">
+      <c r="J45" t="s">
+        <v>37</v>
+      </c>
+      <c r="K45" t="s">
+        <v>38</v>
+      </c>
+      <c r="L45" t="s">
+        <v>104</v>
+      </c>
+      <c r="N45" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/CardGame/Luban/Datas/__beans__.xlsx
+++ b/CardGame/Luban/Datas/__beans__.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="143">
   <si>
     <t>##var</t>
   </si>
@@ -152,24 +152,63 @@
     <t>PropertyMod</t>
   </si>
   <si>
+    <t>,</t>
+  </si>
+  <si>
+    <t>HPRatio</t>
+  </si>
+  <si>
+    <t>生命值比例</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
     <t>Attack</t>
   </si>
   <si>
     <t>攻击力</t>
   </si>
   <si>
+    <t>AttackRatio</t>
+  </si>
+  <si>
+    <t>攻击力比例</t>
+  </si>
+  <si>
     <t>PhysicalDefense</t>
   </si>
   <si>
     <t>物理防御力</t>
   </si>
   <si>
+    <t>PhysicalDefenseRatio</t>
+  </si>
+  <si>
+    <t>物理防御力比例</t>
+  </si>
+  <si>
     <t>MagicDefense</t>
   </si>
   <si>
     <t>魔法防御力</t>
   </si>
   <si>
+    <t>MagicDefenseRatio</t>
+  </si>
+  <si>
+    <t>魔法防御力比例</t>
+  </si>
+  <si>
+    <t>CriticalRate</t>
+  </si>
+  <si>
+    <t>暴击率比例</t>
+  </si>
+  <si>
+    <t>Shiled</t>
+  </si>
+  <si>
     <t>ControlMod</t>
   </si>
   <si>
@@ -224,9 +263,6 @@
     <t>第几秒</t>
   </si>
   <si>
-    <t>float</t>
-  </si>
-  <si>
     <t>事件</t>
   </si>
   <si>
@@ -272,6 +308,18 @@
     <t>伤害类型</t>
   </si>
   <si>
+    <t>DamageAttr</t>
+  </si>
+  <si>
+    <t>属性</t>
+  </si>
+  <si>
+    <t>EDamageAttr</t>
+  </si>
+  <si>
+    <t>伤害属性</t>
+  </si>
+  <si>
     <t>TargetFliter</t>
   </si>
   <si>
@@ -299,6 +347,15 @@
     <t>伤害比例</t>
   </si>
   <si>
+    <t>FixedValue</t>
+  </si>
+  <si>
+    <t>固定值</t>
+  </si>
+  <si>
+    <t>伤害固定值</t>
+  </si>
+  <si>
     <t>AddBuffWarp</t>
   </si>
   <si>
@@ -323,7 +380,7 @@
     <t>添加的Buff层数</t>
   </si>
   <si>
-    <t>TimeChange</t>
+    <t>TimeModify</t>
   </si>
   <si>
     <t>Buff的持续时间修改，true是直接设置，flase是改变</t>
@@ -341,7 +398,64 @@
     <t>时间</t>
   </si>
   <si>
-    <t>(map#sep=;|),string,(array#sep=,),mObject</t>
+    <t>PropMod</t>
+  </si>
+  <si>
+    <t>map,EPropertyModType,mObject#sep=-</t>
+  </si>
+  <si>
+    <t>map,EControlModType,mObject#sep=-</t>
+  </si>
+  <si>
+    <t>EventValueWarp</t>
+  </si>
+  <si>
+    <t>(array#sep=;),BuffEventValueWarp</t>
+  </si>
+  <si>
+    <t>Buff的效果参数</t>
+  </si>
+  <si>
+    <t>TransferBuffWarp</t>
+  </si>
+  <si>
+    <t>RemoveGoodBuffWrap</t>
+  </si>
+  <si>
+    <t>BuffEventValueWarp</t>
+  </si>
+  <si>
+    <t>BuffEventType</t>
+  </si>
+  <si>
+    <t>EBuffEventType</t>
+  </si>
+  <si>
+    <t>方法时机</t>
+  </si>
+  <si>
+    <t>(array#sep=|),mObject#sep=-</t>
+  </si>
+  <si>
+    <t>AutoAddBuffWarp</t>
+  </si>
+  <si>
+    <t>(</t>
+  </si>
+  <si>
+    <t>array,BuffEventValueWarp#sep=,</t>
+  </si>
+  <si>
+    <t>RemoveBuffWarp</t>
+  </si>
+  <si>
+    <t>RemoveBuffType</t>
+  </si>
+  <si>
+    <t>ERemoveBuffType</t>
+  </si>
+  <si>
+    <t>0表示全部</t>
   </si>
 </sst>
 </file>
@@ -1289,10 +1403,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P45"/>
+  <dimension ref="A1:P82"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="L46" sqref="L46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1300,7 +1414,8 @@
     <col min="2" max="4" width="20.625" customWidth="1"/>
     <col min="5" max="6" width="12.25" customWidth="1"/>
     <col min="7" max="9" width="15" customWidth="1"/>
-    <col min="10" max="11" width="13.5" customWidth="1"/>
+    <col min="10" max="10" width="15.7333333333333" customWidth="1"/>
+    <col min="11" max="11" width="13.5" customWidth="1"/>
     <col min="12" max="12" width="35.2916666666667" customWidth="1"/>
     <col min="13" max="13" width="10.375" customWidth="1"/>
     <col min="14" max="14" width="15.5" customWidth="1"/>
@@ -1503,7 +1618,10 @@
         <v>40</v>
       </c>
       <c r="D13" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="E13" t="s">
+        <v>41</v>
       </c>
       <c r="J13" t="s">
         <v>29</v>
@@ -1520,75 +1638,83 @@
     </row>
     <row r="14" spans="10:14">
       <c r="J14" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K14" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L14" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="N14" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="10:14">
       <c r="J15" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K15" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="L15" t="s">
         <v>24</v>
       </c>
       <c r="N15" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="10:14">
       <c r="J16" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K16" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L16" t="s">
+        <v>44</v>
+      </c>
+      <c r="N16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="10:14">
+      <c r="J17" t="s">
+        <v>49</v>
+      </c>
+      <c r="K17" t="s">
+        <v>50</v>
+      </c>
+      <c r="L17" t="s">
         <v>24</v>
       </c>
-      <c r="N16" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="18" spans="2:14">
-      <c r="B18" t="s">
-        <v>47</v>
-      </c>
-      <c r="D18" t="b">
-        <v>1</v>
-      </c>
+      <c r="N17" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="10:14">
       <c r="J18" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="K18" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="L18" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="N18" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="10:14">
       <c r="J19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L19" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="N19" t="s">
         <v>54</v>
@@ -1602,314 +1728,682 @@
         <v>56</v>
       </c>
       <c r="L20" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="N20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21" spans="10:14">
       <c r="J21" t="s">
+        <v>57</v>
+      </c>
+      <c r="K21" t="s">
         <v>58</v>
       </c>
-      <c r="K21" t="s">
+      <c r="L21" t="s">
+        <v>44</v>
+      </c>
+      <c r="N21" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" spans="10:14">
+      <c r="J22" t="s">
         <v>59</v>
       </c>
-      <c r="L21" t="s">
-        <v>50</v>
-      </c>
-      <c r="N21" t="s">
+      <c r="K22" t="s">
+        <v>32</v>
+      </c>
+      <c r="L22" t="s">
+        <v>24</v>
+      </c>
+      <c r="N22" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14">
+      <c r="B24" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="23" spans="2:14">
-      <c r="B23" t="s">
+      <c r="D24" t="b">
+        <v>0</v>
+      </c>
+      <c r="E24" t="s">
+        <v>41</v>
+      </c>
+      <c r="J24" t="s">
         <v>61</v>
       </c>
-      <c r="D23" t="b">
-        <v>1</v>
-      </c>
-      <c r="J23" t="s">
-        <v>29</v>
-      </c>
-      <c r="K23" t="s">
-        <v>30</v>
-      </c>
-      <c r="L23" t="s">
-        <v>24</v>
-      </c>
-      <c r="N23" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="24" spans="10:14">
-      <c r="J24" t="s">
-        <v>31</v>
-      </c>
       <c r="K24" t="s">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="L24" t="s">
-        <v>24</v>
+        <v>63</v>
       </c>
       <c r="N24" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="26" spans="2:12">
-      <c r="B26" t="s">
-        <v>62</v>
-      </c>
-      <c r="D26" t="b">
-        <v>1</v>
-      </c>
-      <c r="E26"/>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="25" spans="10:14">
+      <c r="J25" t="s">
+        <v>65</v>
+      </c>
+      <c r="K25" t="s">
+        <v>66</v>
+      </c>
+      <c r="L25" t="s">
+        <v>63</v>
+      </c>
+      <c r="N25" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="26" spans="10:14">
       <c r="J26" t="s">
+        <v>68</v>
+      </c>
+      <c r="K26" t="s">
+        <v>69</v>
+      </c>
+      <c r="L26" t="s">
         <v>63</v>
       </c>
-      <c r="K26" t="s">
-        <v>64</v>
-      </c>
-      <c r="L26" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="27" spans="10:12">
+      <c r="N26" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="27" spans="10:14">
       <c r="J27" t="s">
-        <v>33</v>
+        <v>71</v>
       </c>
       <c r="K27" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="L27" t="s">
-        <v>33</v>
+        <v>63</v>
+      </c>
+      <c r="N27" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="29" spans="2:14">
       <c r="B29" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D29" t="b">
         <v>1</v>
       </c>
       <c r="J29" t="s">
-        <v>68</v>
+        <v>29</v>
       </c>
       <c r="K29" t="s">
-        <v>69</v>
+        <v>30</v>
       </c>
       <c r="L29" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="N29" t="s">
-        <v>69</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30" spans="10:14">
       <c r="J30" t="s">
-        <v>70</v>
+        <v>31</v>
       </c>
       <c r="K30" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="L30" t="s">
+        <v>24</v>
+      </c>
+      <c r="N30" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="32" spans="2:12">
+      <c r="B32" t="s">
+        <v>75</v>
+      </c>
+      <c r="D32" t="b">
+        <v>1</v>
+      </c>
+      <c r="E32"/>
+      <c r="J32" t="s">
+        <v>76</v>
+      </c>
+      <c r="K32" t="s">
+        <v>77</v>
+      </c>
+      <c r="L32" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="33" spans="10:12">
+      <c r="J33" t="s">
+        <v>33</v>
+      </c>
+      <c r="K33" t="s">
+        <v>78</v>
+      </c>
+      <c r="L33" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14">
+      <c r="B35" t="s">
+        <v>79</v>
+      </c>
+      <c r="D35" t="b">
+        <v>1</v>
+      </c>
+      <c r="J35" t="s">
+        <v>80</v>
+      </c>
+      <c r="K35" t="s">
+        <v>81</v>
+      </c>
+      <c r="L35" t="s">
         <v>36</v>
       </c>
-      <c r="N30" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="31" spans="10:14">
-      <c r="J31" t="s">
-        <v>72</v>
-      </c>
-      <c r="K31" t="s">
-        <v>73</v>
-      </c>
-      <c r="L31" t="s">
-        <v>65</v>
-      </c>
-      <c r="N31" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="32" spans="10:14">
-      <c r="J32" t="s">
-        <v>74</v>
-      </c>
-      <c r="K32" t="s">
-        <v>75</v>
-      </c>
-      <c r="L32" t="s">
-        <v>50</v>
-      </c>
-      <c r="N32" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="34" spans="2:14">
-      <c r="B34" t="s">
-        <v>76</v>
-      </c>
-      <c r="D34" t="b">
-        <v>1</v>
-      </c>
-      <c r="E34" t="s">
-        <v>77</v>
-      </c>
-      <c r="J34" t="s">
-        <v>78</v>
-      </c>
-      <c r="K34" t="s">
-        <v>18</v>
-      </c>
-      <c r="L34" t="s">
-        <v>79</v>
-      </c>
-      <c r="N34" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="35" spans="10:14">
-      <c r="J35" t="s">
+      <c r="N35" t="s">
         <v>81</v>
-      </c>
-      <c r="K35" t="s">
-        <v>82</v>
-      </c>
-      <c r="L35" t="s">
-        <v>83</v>
-      </c>
-      <c r="N35" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="36" spans="10:14">
       <c r="J36" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="K36" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="L36" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="N36" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="37" spans="10:14">
       <c r="J37" t="s">
+        <v>84</v>
+      </c>
+      <c r="K37" t="s">
+        <v>85</v>
+      </c>
+      <c r="L37" t="s">
+        <v>44</v>
+      </c>
+      <c r="N37" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="38" spans="10:14">
+      <c r="J38" t="s">
+        <v>86</v>
+      </c>
+      <c r="K38" t="s">
+        <v>87</v>
+      </c>
+      <c r="L38" t="s">
+        <v>63</v>
+      </c>
+      <c r="N38" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="40" spans="2:14">
+      <c r="B40" t="s">
         <v>88</v>
       </c>
-      <c r="K37" t="s">
+      <c r="D40" t="b">
+        <v>1</v>
+      </c>
+      <c r="E40" t="s">
         <v>89</v>
       </c>
-      <c r="L37" t="s">
-        <v>65</v>
-      </c>
-      <c r="N37" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="39" spans="2:14">
-      <c r="B39" t="s">
+      <c r="J40" t="s">
         <v>90</v>
       </c>
-      <c r="D39" t="b">
-        <v>1</v>
-      </c>
-      <c r="J39" t="s">
+      <c r="K40" t="s">
+        <v>18</v>
+      </c>
+      <c r="L40" t="s">
         <v>91</v>
       </c>
-      <c r="K39" t="s">
+      <c r="N40" t="s">
         <v>92</v>
-      </c>
-      <c r="L39" t="s">
-        <v>65</v>
-      </c>
-      <c r="N39" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="40" spans="10:14">
-      <c r="J40" t="s">
-        <v>93</v>
-      </c>
-      <c r="K40"/>
-      <c r="L40" t="s">
-        <v>36</v>
-      </c>
-      <c r="N40" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="41" spans="10:14">
       <c r="J41" t="s">
+        <v>93</v>
+      </c>
+      <c r="K41" t="s">
+        <v>94</v>
+      </c>
+      <c r="L41" t="s">
         <v>95</v>
       </c>
-      <c r="K41" t="s">
+      <c r="N41" t="s">
         <v>96</v>
-      </c>
-      <c r="L41" t="s">
-        <v>24</v>
-      </c>
-      <c r="N41" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="42" spans="10:14">
       <c r="J42" t="s">
+        <v>97</v>
+      </c>
+      <c r="K42" t="s">
         <v>98</v>
       </c>
-      <c r="K42"/>
       <c r="L42" t="s">
-        <v>50</v>
+        <v>99</v>
       </c>
       <c r="N42" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="43" spans="10:14">
       <c r="J43" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K43" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L43" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="N43" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="44" spans="10:14">
       <c r="J44" t="s">
-        <v>72</v>
+        <v>104</v>
       </c>
       <c r="K44" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="L44" t="s">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="N44" t="s">
-        <v>73</v>
+        <v>105</v>
       </c>
     </row>
     <row r="45" spans="10:14">
       <c r="J45" t="s">
+        <v>106</v>
+      </c>
+      <c r="K45" t="s">
+        <v>107</v>
+      </c>
+      <c r="L45" t="s">
+        <v>24</v>
+      </c>
+      <c r="N45" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14">
+      <c r="B47" t="s">
+        <v>109</v>
+      </c>
+      <c r="D47" t="b">
+        <v>0</v>
+      </c>
+      <c r="E47" t="s">
+        <v>41</v>
+      </c>
+      <c r="J47" t="s">
+        <v>110</v>
+      </c>
+      <c r="K47" t="s">
+        <v>111</v>
+      </c>
+      <c r="L47" t="s">
+        <v>44</v>
+      </c>
+      <c r="N47" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="48" spans="10:14">
+      <c r="J48" t="s">
+        <v>112</v>
+      </c>
+      <c r="K48"/>
+      <c r="L48" t="s">
+        <v>36</v>
+      </c>
+      <c r="N48" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="49" spans="10:14">
+      <c r="J49" t="s">
+        <v>114</v>
+      </c>
+      <c r="K49" t="s">
+        <v>115</v>
+      </c>
+      <c r="L49" t="s">
+        <v>24</v>
+      </c>
+      <c r="N49" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="50" spans="10:14">
+      <c r="J50" t="s">
+        <v>117</v>
+      </c>
+      <c r="K50"/>
+      <c r="L50" t="s">
+        <v>63</v>
+      </c>
+      <c r="N50" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="51" spans="10:14">
+      <c r="J51" t="s">
+        <v>119</v>
+      </c>
+      <c r="K51" t="s">
+        <v>120</v>
+      </c>
+      <c r="L51" t="s">
+        <v>63</v>
+      </c>
+      <c r="N51" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="52" spans="10:14">
+      <c r="J52" t="s">
+        <v>84</v>
+      </c>
+      <c r="K52" t="s">
+        <v>122</v>
+      </c>
+      <c r="L52" t="s">
+        <v>44</v>
+      </c>
+      <c r="N52" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="53" spans="10:12">
+      <c r="J53" t="s">
+        <v>123</v>
+      </c>
+      <c r="K53"/>
+      <c r="L53" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="54" spans="10:12">
+      <c r="J54" t="s">
+        <v>60</v>
+      </c>
+      <c r="L54" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="55" spans="10:14">
+      <c r="J55" t="s">
+        <v>126</v>
+      </c>
+      <c r="K55"/>
+      <c r="L55" t="s">
+        <v>127</v>
+      </c>
+      <c r="N55" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="57" spans="2:12">
+      <c r="B57" t="s">
+        <v>129</v>
+      </c>
+      <c r="D57" t="b">
+        <v>1</v>
+      </c>
+      <c r="E57" t="s">
+        <v>89</v>
+      </c>
+      <c r="J57" t="s">
+        <v>112</v>
+      </c>
+      <c r="L57" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="58" spans="10:14">
+      <c r="J58" t="s">
+        <v>110</v>
+      </c>
+      <c r="K58" t="s">
+        <v>111</v>
+      </c>
+      <c r="L58" t="s">
+        <v>44</v>
+      </c>
+      <c r="N58" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="59" spans="10:12">
+      <c r="J59" t="s">
+        <v>101</v>
+      </c>
+      <c r="K59" t="s">
+        <v>102</v>
+      </c>
+      <c r="L59" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="61" spans="2:14">
+      <c r="B61" t="s">
+        <v>130</v>
+      </c>
+      <c r="D61" t="b">
+        <v>1</v>
+      </c>
+      <c r="E61" t="s">
+        <v>89</v>
+      </c>
+      <c r="J61" t="s">
+        <v>110</v>
+      </c>
+      <c r="K61" t="s">
+        <v>111</v>
+      </c>
+      <c r="L61" t="s">
+        <v>44</v>
+      </c>
+      <c r="N61" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="62" spans="10:12">
+      <c r="J62" t="s">
+        <v>101</v>
+      </c>
+      <c r="K62" t="s">
+        <v>102</v>
+      </c>
+      <c r="L62" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14">
+      <c r="B65" t="s">
+        <v>131</v>
+      </c>
+      <c r="D65" t="b">
+        <v>0</v>
+      </c>
+      <c r="E65" t="s">
+        <v>89</v>
+      </c>
+      <c r="J65" t="s">
+        <v>132</v>
+      </c>
+      <c r="L65" t="s">
+        <v>133</v>
+      </c>
+      <c r="N65" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="66" spans="10:14">
+      <c r="J66" t="s">
+        <v>34</v>
+      </c>
+      <c r="L66" t="s">
+        <v>36</v>
+      </c>
+      <c r="N66" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="67" spans="10:14">
+      <c r="J67" t="s">
         <v>37</v>
       </c>
-      <c r="K45" t="s">
+      <c r="L67" t="s">
+        <v>135</v>
+      </c>
+      <c r="N67" t="s">
         <v>38</v>
       </c>
-      <c r="L45" t="s">
-        <v>104</v>
-      </c>
-      <c r="N45" t="s">
-        <v>38</v>
+    </row>
+    <row r="69" spans="2:12">
+      <c r="B69" t="s">
+        <v>136</v>
+      </c>
+      <c r="D69" t="b">
+        <v>0</v>
+      </c>
+      <c r="J69" t="s">
+        <v>110</v>
+      </c>
+      <c r="L69" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="70" spans="10:12">
+      <c r="J70" t="s">
+        <v>112</v>
+      </c>
+      <c r="L70" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="71" spans="10:12">
+      <c r="J71" t="s">
+        <v>114</v>
+      </c>
+      <c r="L71" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="72" spans="10:12">
+      <c r="J72" t="s">
+        <v>117</v>
+      </c>
+      <c r="L72" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="73" spans="10:12">
+      <c r="J73" t="s">
+        <v>119</v>
+      </c>
+      <c r="L73" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="74" spans="10:12">
+      <c r="J74" t="s">
+        <v>84</v>
+      </c>
+      <c r="L74" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12">
+      <c r="A75" t="s">
+        <v>137</v>
+      </c>
+      <c r="J75" t="s">
+        <v>123</v>
+      </c>
+      <c r="L75" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="76" spans="10:12">
+      <c r="J76" t="s">
+        <v>60</v>
+      </c>
+      <c r="L76" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="77" spans="10:12">
+      <c r="J77" t="s">
+        <v>126</v>
+      </c>
+      <c r="L77" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12">
+      <c r="B79" t="s">
+        <v>139</v>
+      </c>
+      <c r="D79" t="b">
+        <v>1</v>
+      </c>
+      <c r="E79" t="s">
+        <v>89</v>
+      </c>
+      <c r="J79" t="s">
+        <v>140</v>
+      </c>
+      <c r="L79" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="80" spans="10:12">
+      <c r="J80" t="s">
+        <v>112</v>
+      </c>
+      <c r="L80" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="81" spans="10:12">
+      <c r="J81" t="s">
+        <v>110</v>
+      </c>
+      <c r="L81" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="82" spans="10:14">
+      <c r="J82" t="s">
+        <v>101</v>
+      </c>
+      <c r="L82" t="s">
+        <v>24</v>
+      </c>
+      <c r="N82" t="s">
+        <v>142</v>
       </c>
     </row>
   </sheetData>

--- a/CardGame/Luban/Datas/__beans__.xlsx
+++ b/CardGame/Luban/Datas/__beans__.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="144">
   <si>
     <t>##var</t>
   </si>
@@ -269,6 +269,9 @@
     <t>PlayEffectWarp</t>
   </si>
   <si>
+    <t>#</t>
+  </si>
+  <si>
     <t>BindPoint</t>
   </si>
   <si>
@@ -281,181 +284,181 @@
     <t>特效名称</t>
   </si>
   <si>
+    <t>CreateDamageWarp</t>
+  </si>
+  <si>
+    <t>DamageType</t>
+  </si>
+  <si>
+    <t>EDamageType</t>
+  </si>
+  <si>
+    <t>伤害类型</t>
+  </si>
+  <si>
+    <t>DamageAttr</t>
+  </si>
+  <si>
+    <t>属性</t>
+  </si>
+  <si>
+    <t>EDamageAttr</t>
+  </si>
+  <si>
+    <t>伤害属性</t>
+  </si>
+  <si>
+    <t>Ratio</t>
+  </si>
+  <si>
+    <t>伤害比例</t>
+  </si>
+  <si>
+    <t>FixedValue</t>
+  </si>
+  <si>
+    <t>固定值</t>
+  </si>
+  <si>
+    <t>伤害固定值</t>
+  </si>
+  <si>
+    <t>BeHurtEffect</t>
+  </si>
+  <si>
+    <t>受伤特效</t>
+  </si>
+  <si>
+    <t>被打的特效</t>
+  </si>
+  <si>
+    <t>AddBuffWarp</t>
+  </si>
+  <si>
+    <t>Probability</t>
+  </si>
+  <si>
+    <t>概率</t>
+  </si>
+  <si>
+    <t>BuffKey</t>
+  </si>
+  <si>
+    <t>Buff表的Key</t>
+  </si>
+  <si>
+    <t>AddStack</t>
+  </si>
+  <si>
+    <t>层数</t>
+  </si>
+  <si>
+    <t>添加的Buff层数</t>
+  </si>
+  <si>
+    <t>TimeModify</t>
+  </si>
+  <si>
+    <t>Buff的持续时间修改，true是直接设置，flase是改变</t>
+  </si>
+  <si>
+    <t>Permanent</t>
+  </si>
+  <si>
+    <t>永久</t>
+  </si>
+  <si>
+    <t>是否永久Buff</t>
+  </si>
+  <si>
     <t>Duration</t>
   </si>
   <si>
-    <t>持续时间</t>
-  </si>
-  <si>
-    <t>IsLoop</t>
-  </si>
-  <si>
-    <t>循环</t>
-  </si>
-  <si>
-    <t>CreateDamageWarp</t>
-  </si>
-  <si>
-    <t>#</t>
-  </si>
-  <si>
-    <t>DamageType</t>
-  </si>
-  <si>
-    <t>EDamageType</t>
-  </si>
-  <si>
-    <t>伤害类型</t>
-  </si>
-  <si>
-    <t>DamageAttr</t>
-  </si>
-  <si>
-    <t>属性</t>
-  </si>
-  <si>
-    <t>EDamageAttr</t>
-  </si>
-  <si>
-    <t>伤害属性</t>
+    <t>持续回合</t>
+  </si>
+  <si>
+    <t>PropMod</t>
+  </si>
+  <si>
+    <t>map,EPropertyModType,mObject#sep=-</t>
+  </si>
+  <si>
+    <t>修改的属性</t>
+  </si>
+  <si>
+    <t>map,EControlModType,mObject#sep=-</t>
+  </si>
+  <si>
+    <t>修改的行为</t>
+  </si>
+  <si>
+    <t>EventValueWarp</t>
+  </si>
+  <si>
+    <t>array,BuffEventValueWarp</t>
+  </si>
+  <si>
+    <t>触发时机参数</t>
+  </si>
+  <si>
+    <t>RemoveBuffWarp</t>
+  </si>
+  <si>
+    <t>RemoveBuffType</t>
+  </si>
+  <si>
+    <t>ERemoveBuffType</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>0表示全部</t>
+  </si>
+  <si>
+    <t>TransferBuffWarp</t>
+  </si>
+  <si>
+    <t>数量</t>
+  </si>
+  <si>
+    <t>BuffEventValueWarp</t>
+  </si>
+  <si>
+    <t>BuffEventType</t>
+  </si>
+  <si>
+    <t>EBuffEventType</t>
+  </si>
+  <si>
+    <t>方法时机</t>
+  </si>
+  <si>
+    <t>(array#sep=|),mObject#sep=-</t>
+  </si>
+  <si>
+    <t>TargetWarp</t>
+  </si>
+  <si>
+    <t>TargetCamp</t>
+  </si>
+  <si>
+    <t>ETargetCamp</t>
+  </si>
+  <si>
+    <t>目标阵营</t>
   </si>
   <si>
     <t>TargetFliter</t>
   </si>
   <si>
-    <t>目标过滤器</t>
-  </si>
-  <si>
     <t>ETargetFliter</t>
   </si>
   <si>
-    <t>目标过滤类型</t>
-  </si>
-  <si>
-    <t>Count</t>
-  </si>
-  <si>
-    <t>数量</t>
-  </si>
-  <si>
-    <t>目标数量</t>
-  </si>
-  <si>
-    <t>Ratio</t>
-  </si>
-  <si>
-    <t>伤害比例</t>
-  </si>
-  <si>
-    <t>FixedValue</t>
-  </si>
-  <si>
-    <t>固定值</t>
-  </si>
-  <si>
-    <t>伤害固定值</t>
-  </si>
-  <si>
-    <t>AddBuffWarp</t>
-  </si>
-  <si>
-    <t>Probability</t>
-  </si>
-  <si>
-    <t>概率</t>
-  </si>
-  <si>
-    <t>BuffKey</t>
-  </si>
-  <si>
-    <t>Buff表的Key</t>
-  </si>
-  <si>
-    <t>AddStack</t>
-  </si>
-  <si>
-    <t>层数</t>
-  </si>
-  <si>
-    <t>添加的Buff层数</t>
-  </si>
-  <si>
-    <t>TimeModify</t>
-  </si>
-  <si>
-    <t>Buff的持续时间修改，true是直接设置，flase是改变</t>
-  </si>
-  <si>
-    <t>Permanent</t>
-  </si>
-  <si>
-    <t>永久</t>
-  </si>
-  <si>
-    <t>是否永久Buff</t>
-  </si>
-  <si>
-    <t>时间</t>
-  </si>
-  <si>
-    <t>PropMod</t>
-  </si>
-  <si>
-    <t>map,EPropertyModType,mObject#sep=-</t>
-  </si>
-  <si>
-    <t>map,EControlModType,mObject#sep=-</t>
-  </si>
-  <si>
-    <t>EventValueWarp</t>
-  </si>
-  <si>
-    <t>(array#sep=;),BuffEventValueWarp</t>
-  </si>
-  <si>
-    <t>Buff的效果参数</t>
-  </si>
-  <si>
-    <t>TransferBuffWarp</t>
-  </si>
-  <si>
-    <t>RemoveGoodBuffWrap</t>
-  </si>
-  <si>
-    <t>BuffEventValueWarp</t>
-  </si>
-  <si>
-    <t>BuffEventType</t>
-  </si>
-  <si>
-    <t>EBuffEventType</t>
-  </si>
-  <si>
-    <t>方法时机</t>
-  </si>
-  <si>
-    <t>(array#sep=|),mObject#sep=-</t>
-  </si>
-  <si>
-    <t>AutoAddBuffWarp</t>
+    <t>目标过滤</t>
   </si>
   <si>
     <t>(</t>
-  </si>
-  <si>
-    <t>array,BuffEventValueWarp#sep=,</t>
-  </si>
-  <si>
-    <t>RemoveBuffWarp</t>
-  </si>
-  <si>
-    <t>RemoveBuffType</t>
-  </si>
-  <si>
-    <t>ERemoveBuffType</t>
-  </si>
-  <si>
-    <t>0表示全部</t>
   </si>
 </sst>
 </file>
@@ -1403,10 +1406,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P82"/>
+  <dimension ref="A1:P73"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="L46" sqref="L46"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="L52" sqref="L52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1895,186 +1898,187 @@
         <v>79</v>
       </c>
       <c r="D35" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="E35" t="s">
+        <v>80</v>
       </c>
       <c r="J35" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K35" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L35" t="s">
         <v>36</v>
       </c>
       <c r="N35" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="36" spans="10:14">
       <c r="J36" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K36" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L36" t="s">
         <v>36</v>
       </c>
       <c r="N36" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="37" spans="10:14">
-      <c r="J37" t="s">
         <v>84</v>
       </c>
-      <c r="K37" t="s">
+    </row>
+    <row r="38" spans="2:14">
+      <c r="B38" t="s">
         <v>85</v>
       </c>
-      <c r="L37" t="s">
-        <v>44</v>
-      </c>
-      <c r="N37" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="38" spans="10:14">
+      <c r="D38" t="b">
+        <v>0</v>
+      </c>
+      <c r="E38" t="s">
+        <v>80</v>
+      </c>
       <c r="J38" t="s">
         <v>86</v>
       </c>
       <c r="K38" t="s">
+        <v>18</v>
+      </c>
+      <c r="L38" t="s">
         <v>87</v>
       </c>
-      <c r="L38" t="s">
-        <v>63</v>
-      </c>
       <c r="N38" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="40" spans="2:14">
-      <c r="B40" t="s">
         <v>88</v>
       </c>
-      <c r="D40" t="b">
-        <v>1</v>
-      </c>
-      <c r="E40" t="s">
+    </row>
+    <row r="39" spans="10:14">
+      <c r="J39" t="s">
         <v>89</v>
       </c>
+      <c r="K39" t="s">
+        <v>90</v>
+      </c>
+      <c r="L39" t="s">
+        <v>91</v>
+      </c>
+      <c r="N39" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="40" spans="10:14">
       <c r="J40" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="K40" t="s">
-        <v>18</v>
+        <v>94</v>
       </c>
       <c r="L40" t="s">
-        <v>91</v>
+        <v>44</v>
       </c>
       <c r="N40" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="41" spans="10:14">
       <c r="J41" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K41" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="L41" t="s">
-        <v>95</v>
+        <v>24</v>
       </c>
       <c r="N41" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="42" spans="10:14">
       <c r="J42" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K42" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L42" t="s">
-        <v>99</v>
+        <v>36</v>
       </c>
       <c r="N42" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="43" spans="10:14">
-      <c r="J43" t="s">
+    <row r="44" spans="2:14">
+      <c r="B44" t="s">
         <v>101</v>
       </c>
-      <c r="K43" t="s">
+      <c r="D44" t="b">
+        <v>0</v>
+      </c>
+      <c r="E44" t="s">
+        <v>80</v>
+      </c>
+      <c r="J44" t="s">
         <v>102</v>
       </c>
-      <c r="L43" t="s">
-        <v>24</v>
-      </c>
-      <c r="N43" t="s">
+      <c r="K44" t="s">
         <v>103</v>
-      </c>
-    </row>
-    <row r="44" spans="10:14">
-      <c r="J44" t="s">
-        <v>104</v>
-      </c>
-      <c r="K44" t="s">
-        <v>105</v>
       </c>
       <c r="L44" t="s">
         <v>44</v>
       </c>
       <c r="N44" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="45" spans="10:14">
       <c r="J45" t="s">
+        <v>104</v>
+      </c>
+      <c r="K45"/>
+      <c r="L45" t="s">
+        <v>36</v>
+      </c>
+      <c r="N45" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="46" spans="10:14">
+      <c r="J46" t="s">
         <v>106</v>
       </c>
-      <c r="K45" t="s">
+      <c r="K46" t="s">
         <v>107</v>
       </c>
-      <c r="L45" t="s">
+      <c r="L46" t="s">
         <v>24</v>
       </c>
-      <c r="N45" t="s">
+      <c r="N46" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="47" spans="2:14">
-      <c r="B47" t="s">
+    <row r="47" spans="10:14">
+      <c r="J47" t="s">
         <v>109</v>
       </c>
-      <c r="D47" t="b">
-        <v>0</v>
-      </c>
-      <c r="E47" t="s">
-        <v>41</v>
-      </c>
-      <c r="J47" t="s">
+      <c r="K47"/>
+      <c r="L47" t="s">
+        <v>63</v>
+      </c>
+      <c r="N47" t="s">
         <v>110</v>
-      </c>
-      <c r="K47" t="s">
-        <v>111</v>
-      </c>
-      <c r="L47" t="s">
-        <v>44</v>
-      </c>
-      <c r="N47" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="48" spans="10:14">
       <c r="J48" t="s">
+        <v>111</v>
+      </c>
+      <c r="K48" t="s">
         <v>112</v>
       </c>
-      <c r="K48"/>
       <c r="L48" t="s">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="N48" t="s">
         <v>113</v>
@@ -2084,23 +2088,21 @@
       <c r="J49" t="s">
         <v>114</v>
       </c>
-      <c r="K49" t="s">
-        <v>115</v>
-      </c>
+      <c r="K49"/>
       <c r="L49" t="s">
         <v>24</v>
       </c>
       <c r="N49" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="50" spans="10:14">
       <c r="J50" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K50"/>
       <c r="L50" t="s">
-        <v>63</v>
+        <v>117</v>
       </c>
       <c r="N50" t="s">
         <v>118</v>
@@ -2108,302 +2110,197 @@
     </row>
     <row r="51" spans="10:14">
       <c r="J51" t="s">
+        <v>60</v>
+      </c>
+      <c r="L51" t="s">
         <v>119</v>
       </c>
-      <c r="K51" t="s">
+      <c r="N51" t="s">
         <v>120</v>
-      </c>
-      <c r="L51" t="s">
-        <v>63</v>
-      </c>
-      <c r="N51" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="52" spans="10:14">
       <c r="J52" t="s">
-        <v>84</v>
-      </c>
-      <c r="K52" t="s">
+        <v>121</v>
+      </c>
+      <c r="K52"/>
+      <c r="L52" t="s">
         <v>122</v>
       </c>
-      <c r="L52" t="s">
+      <c r="N52" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="54" spans="2:12">
+      <c r="B54" t="s">
+        <v>124</v>
+      </c>
+      <c r="D54" t="b">
+        <v>0</v>
+      </c>
+      <c r="E54" t="s">
+        <v>80</v>
+      </c>
+      <c r="J54" t="s">
+        <v>125</v>
+      </c>
+      <c r="L54" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="55" spans="10:12">
+      <c r="J55" t="s">
+        <v>104</v>
+      </c>
+      <c r="L55" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="56" spans="10:12">
+      <c r="J56" t="s">
+        <v>102</v>
+      </c>
+      <c r="L56" t="s">
         <v>44</v>
       </c>
-      <c r="N52" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="53" spans="10:12">
-      <c r="J53" t="s">
-        <v>123</v>
-      </c>
-      <c r="K53"/>
-      <c r="L53" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="54" spans="10:12">
-      <c r="J54" t="s">
-        <v>60</v>
-      </c>
-      <c r="L54" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="55" spans="10:14">
-      <c r="J55" t="s">
-        <v>126</v>
-      </c>
-      <c r="K55"/>
-      <c r="L55" t="s">
+    </row>
+    <row r="57" spans="10:14">
+      <c r="J57" t="s">
         <v>127</v>
       </c>
-      <c r="N55" t="s">
+      <c r="L57" t="s">
+        <v>24</v>
+      </c>
+      <c r="N57" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="57" spans="2:12">
-      <c r="B57" t="s">
+    <row r="59" spans="2:12">
+      <c r="B59" t="s">
         <v>129</v>
       </c>
-      <c r="D57" t="b">
-        <v>1</v>
-      </c>
-      <c r="E57" t="s">
-        <v>89</v>
-      </c>
-      <c r="J57" t="s">
-        <v>112</v>
-      </c>
-      <c r="L57" t="s">
+      <c r="D59" t="b">
+        <v>0</v>
+      </c>
+      <c r="E59" t="s">
+        <v>80</v>
+      </c>
+      <c r="J59" t="s">
+        <v>104</v>
+      </c>
+      <c r="L59" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="58" spans="10:14">
-      <c r="J58" t="s">
-        <v>110</v>
-      </c>
-      <c r="K58" t="s">
-        <v>111</v>
-      </c>
-      <c r="L58" t="s">
+    <row r="60" spans="10:12">
+      <c r="J60" t="s">
+        <v>102</v>
+      </c>
+      <c r="K60" t="s">
+        <v>103</v>
+      </c>
+      <c r="L60" t="s">
         <v>44</v>
       </c>
-      <c r="N58" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="59" spans="10:12">
-      <c r="J59" t="s">
-        <v>101</v>
-      </c>
-      <c r="K59" t="s">
-        <v>102</v>
-      </c>
-      <c r="L59" t="s">
+    </row>
+    <row r="61" spans="10:12">
+      <c r="J61" t="s">
+        <v>127</v>
+      </c>
+      <c r="K61" t="s">
+        <v>130</v>
+      </c>
+      <c r="L61" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="61" spans="2:14">
-      <c r="B61" t="s">
+    <row r="63" spans="2:14">
+      <c r="B63" t="s">
+        <v>131</v>
+      </c>
+      <c r="D63" t="b">
+        <v>0</v>
+      </c>
+      <c r="E63" t="s">
+        <v>80</v>
+      </c>
+      <c r="J63" t="s">
+        <v>132</v>
+      </c>
+      <c r="L63" t="s">
+        <v>133</v>
+      </c>
+      <c r="N63" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="64" spans="10:14">
+      <c r="J64" t="s">
+        <v>34</v>
+      </c>
+      <c r="L64" t="s">
+        <v>36</v>
+      </c>
+      <c r="N64" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="65" spans="10:14">
+      <c r="J65" t="s">
+        <v>37</v>
+      </c>
+      <c r="L65" t="s">
+        <v>135</v>
+      </c>
+      <c r="N65" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14">
+      <c r="B67" t="s">
+        <v>136</v>
+      </c>
+      <c r="D67" t="b">
+        <v>0</v>
+      </c>
+      <c r="E67" t="s">
+        <v>80</v>
+      </c>
+      <c r="J67" t="s">
+        <v>137</v>
+      </c>
+      <c r="L67" t="s">
+        <v>138</v>
+      </c>
+      <c r="N67" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="68" spans="10:14">
+      <c r="J68" t="s">
+        <v>140</v>
+      </c>
+      <c r="L68" t="s">
+        <v>141</v>
+      </c>
+      <c r="N68" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="69" spans="10:14">
+      <c r="J69" t="s">
+        <v>127</v>
+      </c>
+      <c r="L69" t="s">
+        <v>24</v>
+      </c>
+      <c r="N69" t="s">
         <v>130</v>
       </c>
-      <c r="D61" t="b">
-        <v>1</v>
-      </c>
-      <c r="E61" t="s">
-        <v>89</v>
-      </c>
-      <c r="J61" t="s">
-        <v>110</v>
-      </c>
-      <c r="K61" t="s">
-        <v>111</v>
-      </c>
-      <c r="L61" t="s">
-        <v>44</v>
-      </c>
-      <c r="N61" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="62" spans="10:12">
-      <c r="J62" t="s">
-        <v>101</v>
-      </c>
-      <c r="K62" t="s">
-        <v>102</v>
-      </c>
-      <c r="L62" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="65" spans="2:14">
-      <c r="B65" t="s">
-        <v>131</v>
-      </c>
-      <c r="D65" t="b">
-        <v>0</v>
-      </c>
-      <c r="E65" t="s">
-        <v>89</v>
-      </c>
-      <c r="J65" t="s">
-        <v>132</v>
-      </c>
-      <c r="L65" t="s">
-        <v>133</v>
-      </c>
-      <c r="N65" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="66" spans="10:14">
-      <c r="J66" t="s">
-        <v>34</v>
-      </c>
-      <c r="L66" t="s">
-        <v>36</v>
-      </c>
-      <c r="N66" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="67" spans="10:14">
-      <c r="J67" t="s">
-        <v>37</v>
-      </c>
-      <c r="L67" t="s">
-        <v>135</v>
-      </c>
-      <c r="N67" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="69" spans="2:12">
-      <c r="B69" t="s">
-        <v>136</v>
-      </c>
-      <c r="D69" t="b">
-        <v>0</v>
-      </c>
-      <c r="J69" t="s">
-        <v>110</v>
-      </c>
-      <c r="L69" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="70" spans="10:12">
-      <c r="J70" t="s">
-        <v>112</v>
-      </c>
-      <c r="L70" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="71" spans="10:12">
-      <c r="J71" t="s">
-        <v>114</v>
-      </c>
-      <c r="L71" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="72" spans="10:12">
-      <c r="J72" t="s">
-        <v>117</v>
-      </c>
-      <c r="L72" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="73" spans="10:12">
-      <c r="J73" t="s">
-        <v>119</v>
-      </c>
-      <c r="L73" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="74" spans="10:12">
-      <c r="J74" t="s">
-        <v>84</v>
-      </c>
-      <c r="L74" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12">
-      <c r="A75" t="s">
-        <v>137</v>
-      </c>
-      <c r="J75" t="s">
-        <v>123</v>
-      </c>
-      <c r="L75" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="76" spans="10:12">
-      <c r="J76" t="s">
-        <v>60</v>
-      </c>
-      <c r="L76" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="77" spans="10:12">
-      <c r="J77" t="s">
-        <v>126</v>
-      </c>
-      <c r="L77" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="79" spans="2:12">
-      <c r="B79" t="s">
-        <v>139</v>
-      </c>
-      <c r="D79" t="b">
-        <v>1</v>
-      </c>
-      <c r="E79" t="s">
-        <v>89</v>
-      </c>
-      <c r="J79" t="s">
-        <v>140</v>
-      </c>
-      <c r="L79" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="80" spans="10:12">
-      <c r="J80" t="s">
-        <v>112</v>
-      </c>
-      <c r="L80" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="81" spans="10:12">
-      <c r="J81" t="s">
-        <v>110</v>
-      </c>
-      <c r="L81" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="82" spans="10:14">
-      <c r="J82" t="s">
-        <v>101</v>
-      </c>
-      <c r="L82" t="s">
-        <v>24</v>
-      </c>
-      <c r="N82" t="s">
-        <v>142</v>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" t="s">
+        <v>143</v>
       </c>
     </row>
   </sheetData>
